--- a/数据表/Y-异常状态信息表.xlsx
+++ b/数据表/Y-异常状态信息表.xlsx
@@ -4,19 +4,67 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="DebuffConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="AbnormalConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>RTX4090</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：非控制类异常状态
+2：控制类异常状态</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>异常状态信息表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+  <si>
+    <t>异常ID</t>
+  </si>
+  <si>
+    <t>异常名称</t>
+  </si>
+  <si>
+    <t>异常类型</t>
+  </si>
+  <si>
+    <t>#异常效果</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>Id</t>
@@ -31,17 +79,10 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>remarks</t>
-  </si>
-  <si>
     <t>烧伤</t>
   </si>
   <si>
     <t>1-2回合内，进入重伤效果（体力恢复效果减半），每回合受到最大体力值1/8的真实伤害。</t>
-  </si>
-  <si>
-    <t>1：非控制类异常状态
-2：控制类异常状态</t>
   </si>
   <si>
     <t>冻伤</t>
@@ -95,11 +136,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,44 +150,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,59 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -221,42 +278,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -268,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,52 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,24 +554,59 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,163 +624,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,204 +1127,204 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:4">
+      <c r="A4" s="2">
         <v>1001</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
-      <c r="A4" s="1">
+    <row r="5" ht="27" spans="1:4">
+      <c r="A5" s="2">
         <v>1002</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>1003</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>1004</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>1005</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>1006</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>1007</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
+    </row>
+    <row r="11" ht="27" spans="1:4">
+      <c r="A11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="12" ht="27" spans="1:4">
+      <c r="A12" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" ht="27" spans="1:5">
-      <c r="A11" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="13" ht="27" spans="1:4">
+      <c r="A13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="27" spans="1:5">
-      <c r="A12" s="1">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E3:E12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/数据表/Y-异常状态信息表.xlsx
+++ b/数据表/Y-异常状态信息表.xlsx
@@ -19,7 +19,7 @@
     <author>RTX4090</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,11 +47,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>异常ID</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>异常名称</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -79,55 +85,76 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>burn</t>
+  </si>
+  <si>
     <t>烧伤</t>
   </si>
   <si>
     <t>1-2回合内，进入重伤效果（体力恢复效果减半），每回合受到最大体力值1/8的真实伤害。</t>
   </si>
   <si>
+    <t>froze</t>
+  </si>
+  <si>
     <t>冻伤</t>
   </si>
   <si>
     <t>1-2回合内，攻击技能先制-1，每回合受到最大体力值1/8的真实伤害。</t>
   </si>
   <si>
+    <t>poison</t>
+  </si>
+  <si>
     <t>中毒</t>
   </si>
   <si>
     <t>每回合受到最大体力值1/16的真实伤害。</t>
   </si>
   <si>
+    <t>numb</t>
+  </si>
+  <si>
     <t>麻痹</t>
   </si>
   <si>
     <t>1-3回合内无法行动。</t>
   </si>
   <si>
+    <t>exhausted</t>
+  </si>
+  <si>
     <t>疲惫</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>害怕</t>
   </si>
   <si>
+    <t>hypnosis</t>
+  </si>
+  <si>
     <t>睡眠</t>
   </si>
   <si>
+    <t>firing</t>
+  </si>
+  <si>
     <t>灼热</t>
   </si>
   <si>
     <t>1-3回合内无法行动，状态结束后进入1回合烧伤效果。</t>
   </si>
   <si>
+    <t>frozen</t>
+  </si>
+  <si>
     <t>冰封</t>
   </si>
   <si>
     <t>1-3回合内无法行动，状态结束后进入1回合冻伤效果。</t>
-  </si>
-  <si>
-    <t>感染</t>
-  </si>
-  <si>
-    <t>1-3回合内无法行动，状态结束后进入中毒效果。</t>
   </si>
 </sst>
 </file>
@@ -136,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -149,6 +176,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -156,6 +199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,7 +215,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,23 +238,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,9 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,35 +265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,19 +281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,14 +299,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,31 +340,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,19 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,19 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,130 +524,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,6 +545,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -574,6 +584,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,27 +623,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -776,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,19 +1139,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,174 +1165,203 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:4">
+    <row r="4" ht="27" spans="1:5">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:4">
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="27" spans="1:5">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>1006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>1007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:4">
+    <row r="11" ht="27" spans="1:5">
       <c r="A11" s="2">
         <v>1008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:4">
+    <row r="12" ht="27" spans="1:5">
       <c r="A12" s="2">
         <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:4">
-      <c r="A13" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
